--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_19_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_19_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-889864.2761994611</v>
+        <v>-892345.1960249202</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673428</v>
       </c>
     </row>
     <row r="9">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.8136950763541</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>338.3527451838811</v>
+        <v>338.352745183881</v>
       </c>
       <c r="D11" t="n">
         <v>327.7628950335564</v>
@@ -1379,16 +1379,16 @@
         <v>355.0102234851353</v>
       </c>
       <c r="F11" t="n">
-        <v>379.9558991545849</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>384.0015790663269</v>
+        <v>291.4081826902612</v>
       </c>
       <c r="H11" t="n">
-        <v>104.9850598349413</v>
+        <v>267.6876178001939</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65678318579947</v>
+        <v>14.65678318579944</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.26761520104932</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>224.0750253717755</v>
       </c>
       <c r="V11" t="n">
-        <v>300.8321118830085</v>
+        <v>300.8321118830084</v>
       </c>
       <c r="W11" t="n">
         <v>322.3208221302865</v>
@@ -1436,7 +1436,7 @@
         <v>342.8109540913425</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>359.3177920689271</v>
       </c>
     </row>
     <row r="12">
@@ -1528,25 +1528,25 @@
         <v>152.9118335948108</v>
       </c>
       <c r="C13" t="n">
-        <v>140.3266745115014</v>
+        <v>140.3266745115013</v>
       </c>
       <c r="D13" t="n">
-        <v>121.6953264310859</v>
+        <v>121.6953264310858</v>
       </c>
       <c r="E13" t="n">
         <v>119.5138160594427</v>
       </c>
       <c r="F13" t="n">
-        <v>118.5009014358048</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>139.1056616719017</v>
       </c>
       <c r="H13" t="n">
-        <v>62.15959247879752</v>
+        <v>52.5019220707706</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271161</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292086</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1588,10 +1588,10 @@
         <v>225.2174967367015</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>259.6028517494645</v>
       </c>
       <c r="X13" t="n">
-        <v>198.7895088019107</v>
+        <v>198.7895088019106</v>
       </c>
       <c r="Y13" t="n">
         <v>191.6645067649683</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.8136950763541</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>338.3527451838812</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7628950335564</v>
+        <v>327.7628950335566</v>
       </c>
       <c r="E14" t="n">
-        <v>306.6898622216777</v>
+        <v>355.0102234851354</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>379.955899154585</v>
       </c>
       <c r="G14" t="n">
-        <v>384.0015790663269</v>
+        <v>384.0015790663271</v>
       </c>
       <c r="H14" t="n">
-        <v>267.6876178001939</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>14.65678318579953</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26761520104937</v>
+        <v>59.72590598702462</v>
       </c>
       <c r="T14" t="n">
         <v>176.9978235524937</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>224.0750253717756</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8321118830084</v>
+        <v>300.8321118830085</v>
       </c>
       <c r="W14" t="n">
-        <v>322.3208221302865</v>
+        <v>322.3208221302866</v>
       </c>
       <c r="X14" t="n">
-        <v>342.8109540913425</v>
+        <v>342.8109540913426</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3177920689271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1765,22 +1765,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>120.8795453498462</v>
+        <v>140.3266745115014</v>
       </c>
       <c r="D16" t="n">
-        <v>121.6953264310859</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>119.5138160594427</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G16" t="n">
-        <v>139.1056616719017</v>
+        <v>139.1056616719018</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>117.8348683271944</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292086</v>
+        <v>62.01200608292091</v>
       </c>
       <c r="S16" t="n">
-        <v>162.8488787443154</v>
+        <v>148.2751223101883</v>
       </c>
       <c r="T16" t="n">
-        <v>192.6288026890427</v>
+        <v>192.6288026890428</v>
       </c>
       <c r="U16" t="n">
-        <v>259.2916916184864</v>
+        <v>259.2916916184865</v>
       </c>
       <c r="V16" t="n">
-        <v>225.2174967367015</v>
+        <v>225.2174967367016</v>
       </c>
       <c r="W16" t="n">
-        <v>259.6028517494645</v>
+        <v>259.6028517494646</v>
       </c>
       <c r="X16" t="n">
         <v>198.7895088019107</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6645067649683</v>
+        <v>191.6645067649684</v>
       </c>
     </row>
     <row r="17">
@@ -1844,22 +1844,22 @@
         <v>308.8385584577615</v>
       </c>
       <c r="C17" t="n">
-        <v>291.3776085652885</v>
+        <v>291.3776085652884</v>
       </c>
       <c r="D17" t="n">
-        <v>280.7877584149639</v>
+        <v>280.7877584149638</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>308.0350868665427</v>
       </c>
       <c r="F17" t="n">
-        <v>332.9807625359924</v>
+        <v>332.9807625359923</v>
       </c>
       <c r="G17" t="n">
-        <v>337.0264424477344</v>
+        <v>337.0264424477343</v>
       </c>
       <c r="H17" t="n">
-        <v>220.7124811816014</v>
+        <v>220.7124811816013</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245678</v>
+        <v>35.29247858245671</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0226869339011</v>
+        <v>130.022686933901</v>
       </c>
       <c r="U17" t="n">
-        <v>177.0998887531829</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>253.8569752644158</v>
+        <v>97.90474570419671</v>
       </c>
       <c r="W17" t="n">
         <v>275.3456855116939</v>
       </c>
       <c r="X17" t="n">
-        <v>270.8187860258893</v>
+        <v>295.8358174727499</v>
       </c>
       <c r="Y17" t="n">
         <v>312.3426554503345</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2002,25 +2002,25 @@
         <v>105.9366969762182</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35153789290877</v>
+        <v>93.35153789290872</v>
       </c>
       <c r="D19" t="n">
-        <v>74.72018981249329</v>
+        <v>74.72018981249325</v>
       </c>
       <c r="E19" t="n">
-        <v>72.5386794408501</v>
+        <v>72.53867944085006</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52576481721218</v>
+        <v>71.52576481721213</v>
       </c>
       <c r="G19" t="n">
-        <v>92.13052505330916</v>
+        <v>92.13052505330911</v>
       </c>
       <c r="H19" t="n">
-        <v>133.2594259035653</v>
+        <v>70.85973170860167</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45713720411904</v>
+        <v>22.45713720411899</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03686946432828</v>
+        <v>15.03686946432822</v>
       </c>
       <c r="S19" t="n">
-        <v>115.8737421257228</v>
+        <v>178.2734363206875</v>
       </c>
       <c r="T19" t="n">
         <v>145.6536660704501</v>
       </c>
       <c r="U19" t="n">
-        <v>212.3165549998938</v>
+        <v>212.3165549998937</v>
       </c>
       <c r="V19" t="n">
         <v>178.2423601181089</v>
@@ -2065,7 +2065,7 @@
         <v>212.6277151308719</v>
       </c>
       <c r="X19" t="n">
-        <v>151.8143721833181</v>
+        <v>151.814372183318</v>
       </c>
       <c r="Y19" t="n">
         <v>144.6893701463757</v>
@@ -2084,19 +2084,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>280.7877584149639</v>
+        <v>280.7877584149638</v>
       </c>
       <c r="E20" t="n">
         <v>308.0350868665427</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9807625359924</v>
+        <v>332.9807625359923</v>
       </c>
       <c r="G20" t="n">
-        <v>337.0264424477344</v>
+        <v>337.0264424477343</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7124811816014</v>
+        <v>220.7124811816013</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245678</v>
+        <v>35.29247858245671</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0226869339011</v>
+        <v>130.022686933901</v>
       </c>
       <c r="U20" t="n">
-        <v>135.4253790050685</v>
+        <v>177.0998887531829</v>
       </c>
       <c r="V20" t="n">
         <v>253.8569752644158</v>
       </c>
       <c r="W20" t="n">
-        <v>275.3456855116939</v>
+        <v>233.6711757635809</v>
       </c>
       <c r="X20" t="n">
-        <v>295.83581747275</v>
+        <v>295.8358174727499</v>
       </c>
       <c r="Y20" t="n">
         <v>312.3426554503345</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2239,25 +2239,25 @@
         <v>105.9366969762182</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35153789290877</v>
+        <v>93.35153789290872</v>
       </c>
       <c r="D22" t="n">
-        <v>74.72018981249329</v>
+        <v>74.72018981249325</v>
       </c>
       <c r="E22" t="n">
-        <v>72.5386794408501</v>
+        <v>72.53867944085006</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52576481721218</v>
+        <v>71.52576481721213</v>
       </c>
       <c r="G22" t="n">
-        <v>154.5302192482727</v>
+        <v>154.5302192482738</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85973170860171</v>
+        <v>70.85973170860167</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45713720411904</v>
+        <v>22.45713720411899</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03686946432828</v>
+        <v>15.03686946432822</v>
       </c>
       <c r="S22" t="n">
         <v>115.8737421257228</v>
@@ -2293,7 +2293,7 @@
         <v>145.6536660704501</v>
       </c>
       <c r="U22" t="n">
-        <v>212.3165549998938</v>
+        <v>212.3165549998937</v>
       </c>
       <c r="V22" t="n">
         <v>178.2423601181089</v>
@@ -2302,7 +2302,7 @@
         <v>212.6277151308719</v>
       </c>
       <c r="X22" t="n">
-        <v>151.8143721833181</v>
+        <v>151.814372183318</v>
       </c>
       <c r="Y22" t="n">
         <v>144.6893701463757</v>
@@ -2318,19 +2318,19 @@
         <v>308.8385584577615</v>
       </c>
       <c r="C23" t="n">
-        <v>291.3776085652885</v>
+        <v>291.3776085652884</v>
       </c>
       <c r="D23" t="n">
-        <v>280.7877584149639</v>
+        <v>280.7877584149638</v>
       </c>
       <c r="E23" t="n">
         <v>308.0350868665427</v>
       </c>
       <c r="F23" t="n">
-        <v>332.9807625359924</v>
+        <v>332.9807625359923</v>
       </c>
       <c r="G23" t="n">
-        <v>337.0264424477344</v>
+        <v>337.0264424477343</v>
       </c>
       <c r="H23" t="n">
         <v>220.7124811816014</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245678</v>
+        <v>35.29247858245675</v>
       </c>
       <c r="T23" t="n">
-        <v>130.0226869339011</v>
+        <v>130.022686933901</v>
       </c>
       <c r="U23" t="n">
         <v>177.0998887531829</v>
@@ -2381,7 +2381,7 @@
         <v>275.3456855116939</v>
       </c>
       <c r="X23" t="n">
-        <v>295.83581747275</v>
+        <v>295.8358174727499</v>
       </c>
       <c r="Y23" t="n">
         <v>312.3426554503345</v>
@@ -2415,7 +2415,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247631</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.9366969762182</v>
+        <v>168.3363911711824</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35153789290877</v>
+        <v>93.35153789290872</v>
       </c>
       <c r="D25" t="n">
-        <v>74.72018981249329</v>
+        <v>74.72018981249325</v>
       </c>
       <c r="E25" t="n">
-        <v>72.5386794408501</v>
+        <v>72.53867944085006</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52576481721218</v>
+        <v>71.52576481721213</v>
       </c>
       <c r="G25" t="n">
-        <v>92.13052505330916</v>
+        <v>92.13052505330911</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85973170860171</v>
+        <v>70.85973170860167</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45713720411904</v>
+        <v>22.457137204119</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03686946432828</v>
+        <v>15.03686946432823</v>
       </c>
       <c r="S25" t="n">
-        <v>178.2734363206864</v>
+        <v>115.8737421257228</v>
       </c>
       <c r="T25" t="n">
         <v>145.6536660704501</v>
       </c>
       <c r="U25" t="n">
-        <v>212.3165549998938</v>
+        <v>212.3165549998937</v>
       </c>
       <c r="V25" t="n">
         <v>178.2423601181089</v>
@@ -2539,7 +2539,7 @@
         <v>212.6277151308719</v>
       </c>
       <c r="X25" t="n">
-        <v>151.8143721833181</v>
+        <v>151.814372183318</v>
       </c>
       <c r="Y25" t="n">
         <v>144.6893701463757</v>
@@ -2555,7 +2555,7 @@
         <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D26" t="n">
         <v>307.7079050020903</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -3281,7 +3281,7 @@
         <v>313.2370054253485</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>69.5621008705229</v>
       </c>
       <c r="D37" t="n">
         <v>50.93075279010742</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846423</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482631</v>
       </c>
       <c r="G37" t="n">
         <v>68.34108803092329</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621585</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333696</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480643</v>
+        <v>172.8237348705153</v>
       </c>
       <c r="U37" t="n">
         <v>188.5271179775079</v>
@@ -3490,7 +3490,7 @@
         <v>128.0249351609322</v>
       </c>
       <c r="Y37" t="n">
-        <v>163.1068713883832</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D38" t="n">
         <v>256.998321392578</v>
@@ -3518,7 +3518,7 @@
         <v>313.2370054253485</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007083</v>
+        <v>11.50304156007087</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U38" t="n">
         <v>153.310451730797</v>
@@ -3569,7 +3569,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="39">
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383228</v>
+        <v>82.14725995383233</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052281</v>
+        <v>69.56210087052287</v>
       </c>
       <c r="D40" t="n">
-        <v>94.46999087276818</v>
+        <v>50.93075279010739</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846415</v>
+        <v>48.74924241846421</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482628</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>119.3005938533747</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621582</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,25 +3706,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333687</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480642</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775078</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V40" t="n">
-        <v>154.452923095723</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>188.838278108486</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y40" t="n">
         <v>120.8999331239898</v>
@@ -3755,7 +3755,7 @@
         <v>313.2370054253485</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007091</v>
       </c>
       <c r="T41" t="n">
         <v>106.2332499115152</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383236</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052288</v>
+        <v>69.5621008705229</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010742</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846423</v>
       </c>
       <c r="F43" t="n">
-        <v>89.94326605921978</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092329</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621585</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333696</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480643</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>188.5271179775079</v>
       </c>
       <c r="V43" t="n">
-        <v>154.4529230957231</v>
+        <v>205.4124289181738</v>
       </c>
       <c r="W43" t="n">
         <v>188.8382781084861</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="44">
@@ -3974,22 +3974,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353755</v>
       </c>
       <c r="C44" t="n">
         <v>267.5881715429025</v>
       </c>
       <c r="D44" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925779</v>
       </c>
       <c r="E44" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441567</v>
       </c>
       <c r="F44" t="n">
         <v>309.1913255136064</v>
       </c>
       <c r="G44" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253484</v>
       </c>
       <c r="H44" t="n">
         <v>196.9230441592154</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007083</v>
+        <v>11.5030415600708</v>
       </c>
       <c r="T44" t="n">
         <v>106.2332499115151</v>
       </c>
       <c r="U44" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307969</v>
       </c>
       <c r="V44" t="n">
         <v>230.0675382420299</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383228</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>69.56210087052278</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010733</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>90.95618068285825</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482622</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>68.3410880309232</v>
+        <v>68.34108803092317</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621576</v>
+        <v>47.07029468621573</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>42.20693826439445</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,13 +4183,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333687</v>
+        <v>92.08430510333685</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480641</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V46" t="n">
         <v>154.452923095723</v>
@@ -4198,10 +4198,10 @@
         <v>188.838278108486</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239897</v>
       </c>
     </row>
   </sheetData>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1990.476949709179</v>
+        <v>1677.500447117867</v>
       </c>
       <c r="C11" t="n">
-        <v>1648.706500028491</v>
+        <v>1335.72999743718</v>
       </c>
       <c r="D11" t="n">
-        <v>1317.632868681464</v>
+        <v>1004.656366090153</v>
       </c>
       <c r="E11" t="n">
-        <v>959.0366833429435</v>
+        <v>646.0601807516325</v>
       </c>
       <c r="F11" t="n">
-        <v>575.2428458130597</v>
+        <v>646.0601807516325</v>
       </c>
       <c r="G11" t="n">
-        <v>187.36246291778</v>
+        <v>351.7084810645</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31694793299096</v>
+        <v>81.31694793299094</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218342</v>
@@ -5042,13 +5042,13 @@
         <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060171</v>
@@ -5066,25 +5066,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3242.507220395989</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3242.507220395989</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609171</v>
+        <v>3016.168810929549</v>
       </c>
       <c r="V11" t="n">
-        <v>3021.735001525324</v>
+        <v>2712.297990845702</v>
       </c>
       <c r="W11" t="n">
-        <v>2696.158413514933</v>
+        <v>2386.721402835311</v>
       </c>
       <c r="X11" t="n">
-        <v>2349.884722513577</v>
+        <v>2040.447711833955</v>
       </c>
       <c r="Y11" t="n">
-        <v>2349.884722513577</v>
+        <v>1677.500447117867</v>
       </c>
     </row>
     <row r="12">
@@ -5118,13 +5118,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>845.0315572516237</v>
+        <v>645.4448444571357</v>
       </c>
       <c r="C13" t="n">
-        <v>703.2874415834405</v>
+        <v>503.7007287889525</v>
       </c>
       <c r="D13" t="n">
-        <v>580.3628694308285</v>
+        <v>380.7761566363405</v>
       </c>
       <c r="E13" t="n">
-        <v>459.6418431081591</v>
+        <v>260.0551303136706</v>
       </c>
       <c r="F13" t="n">
-        <v>339.9439628699724</v>
+        <v>260.0551303136706</v>
       </c>
       <c r="G13" t="n">
-        <v>199.4331935044147</v>
+        <v>119.5443609481133</v>
       </c>
       <c r="H13" t="n">
-        <v>136.6457263541142</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>138.2856940003742</v>
+        <v>138.2856940003743</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9238220705058</v>
+        <v>368.9238220705059</v>
       </c>
       <c r="L13" t="n">
         <v>712.1345656402573</v>
@@ -5215,34 +5215,34 @@
         <v>1776.98242222985</v>
       </c>
       <c r="P13" t="n">
-        <v>2036.240867784764</v>
+        <v>2036.240867784765</v>
       </c>
       <c r="Q13" t="n">
-        <v>2140.502109058534</v>
+        <v>2140.502109058535</v>
       </c>
       <c r="R13" t="n">
-        <v>2077.863719075786</v>
+        <v>2140.502109058535</v>
       </c>
       <c r="S13" t="n">
-        <v>2077.863719075786</v>
+        <v>2140.502109058535</v>
       </c>
       <c r="T13" t="n">
-        <v>1883.289170905036</v>
+        <v>1945.927560887784</v>
       </c>
       <c r="U13" t="n">
-        <v>1621.378371290403</v>
+        <v>1684.016761273152</v>
       </c>
       <c r="V13" t="n">
-        <v>1393.88595034424</v>
+        <v>1456.524340326989</v>
       </c>
       <c r="W13" t="n">
-        <v>1393.88595034424</v>
+        <v>1194.299237549752</v>
       </c>
       <c r="X13" t="n">
-        <v>1193.088466705946</v>
+        <v>993.501753911458</v>
       </c>
       <c r="Y13" t="n">
-        <v>999.4879548221397</v>
+        <v>799.9012420276516</v>
       </c>
     </row>
     <row r="14">
@@ -5252,31 +5252,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1365.645403423855</v>
+        <v>1884.431434724391</v>
       </c>
       <c r="C14" t="n">
-        <v>1365.645403423855</v>
+        <v>1542.660985043703</v>
       </c>
       <c r="D14" t="n">
-        <v>1034.571772076828</v>
+        <v>1211.587353696676</v>
       </c>
       <c r="E14" t="n">
-        <v>724.7840324589722</v>
+        <v>852.9911683581556</v>
       </c>
       <c r="F14" t="n">
-        <v>724.7840324589722</v>
+        <v>469.1973308282718</v>
       </c>
       <c r="G14" t="n">
-        <v>336.9036495636925</v>
+        <v>81.31694793299101</v>
       </c>
       <c r="H14" t="n">
-        <v>66.5121164321834</v>
+        <v>81.31694793299101</v>
       </c>
       <c r="I14" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
         <v>589.2106210810553</v>
@@ -5288,7 +5288,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939507</v>
@@ -5303,25 +5303,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3242.507220395989</v>
+        <v>3265.276623642479</v>
       </c>
       <c r="T14" t="n">
-        <v>3063.721540039935</v>
+        <v>3086.490943286424</v>
       </c>
       <c r="U14" t="n">
-        <v>3063.721540039935</v>
+        <v>2860.152533819984</v>
       </c>
       <c r="V14" t="n">
-        <v>2759.850719956088</v>
+        <v>2556.281713736138</v>
       </c>
       <c r="W14" t="n">
-        <v>2434.274131945697</v>
+        <v>2230.705125725747</v>
       </c>
       <c r="X14" t="n">
-        <v>2088.000440944341</v>
+        <v>1884.431434724391</v>
       </c>
       <c r="Y14" t="n">
-        <v>1725.053176228254</v>
+        <v>1884.431434724391</v>
       </c>
     </row>
     <row r="15">
@@ -5331,34 +5331,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I15" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L15" t="n">
         <v>765.151745215813</v>
@@ -5373,7 +5373,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
         <v>2565.053542533341</v>
@@ -5388,7 +5388,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>572.7690351314529</v>
+        <v>587.490001226529</v>
       </c>
       <c r="C16" t="n">
-        <v>450.6684842730222</v>
+        <v>445.7458855583461</v>
       </c>
       <c r="D16" t="n">
-        <v>327.7439121204101</v>
+        <v>445.7458855583461</v>
       </c>
       <c r="E16" t="n">
-        <v>207.0228857977407</v>
+        <v>445.7458855583461</v>
       </c>
       <c r="F16" t="n">
-        <v>207.0228857977407</v>
+        <v>326.0480053201593</v>
       </c>
       <c r="G16" t="n">
-        <v>66.5121164321834</v>
+        <v>185.537235954602</v>
       </c>
       <c r="H16" t="n">
         <v>66.5121164321834</v>
@@ -5434,52 +5434,52 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J16" t="n">
-        <v>138.2856940003742</v>
+        <v>138.2856940003738</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9238220705057</v>
+        <v>368.9238220705054</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1345656402568</v>
+        <v>712.1345656402566</v>
       </c>
       <c r="M16" t="n">
         <v>1082.942556361061</v>
       </c>
       <c r="N16" t="n">
-        <v>1451.001878188181</v>
+        <v>1451.00187818818</v>
       </c>
       <c r="O16" t="n">
         <v>1776.982422229849</v>
       </c>
       <c r="P16" t="n">
-        <v>2036.240867784764</v>
+        <v>2036.240867784763</v>
       </c>
       <c r="Q16" t="n">
-        <v>2140.502109058534</v>
+        <v>2140.502109058533</v>
       </c>
       <c r="R16" t="n">
         <v>2077.863719075785</v>
       </c>
       <c r="S16" t="n">
-        <v>1913.369902162336</v>
+        <v>1928.090868257413</v>
       </c>
       <c r="T16" t="n">
-        <v>1718.795353991585</v>
+        <v>1733.516320086662</v>
       </c>
       <c r="U16" t="n">
-        <v>1456.884554376953</v>
+        <v>1471.605520472029</v>
       </c>
       <c r="V16" t="n">
-        <v>1229.39213343079</v>
+        <v>1244.113099525866</v>
       </c>
       <c r="W16" t="n">
-        <v>967.1670306535528</v>
+        <v>981.8879967486291</v>
       </c>
       <c r="X16" t="n">
-        <v>766.3695470152593</v>
+        <v>781.0905131103355</v>
       </c>
       <c r="Y16" t="n">
-        <v>572.7690351314529</v>
+        <v>587.490001226529</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1544.173786276204</v>
+        <v>1855.320338666651</v>
       </c>
       <c r="C17" t="n">
-        <v>1249.85296954359</v>
+        <v>1560.999521934036</v>
       </c>
       <c r="D17" t="n">
-        <v>966.2289711446363</v>
+        <v>1277.375523535083</v>
       </c>
       <c r="E17" t="n">
-        <v>966.2289711446363</v>
+        <v>966.2289711446358</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8847665628257</v>
+        <v>629.8847665628255</v>
       </c>
       <c r="G17" t="n">
-        <v>289.4540166156192</v>
+        <v>289.4540166156191</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3289.956853344062</v>
+        <v>3289.956853344063</v>
       </c>
       <c r="T17" t="n">
-        <v>3158.620805936081</v>
+        <v>3158.620805936082</v>
       </c>
       <c r="U17" t="n">
-        <v>2979.732029417714</v>
+        <v>3158.620805936082</v>
       </c>
       <c r="V17" t="n">
-        <v>2723.31084228194</v>
+        <v>3059.72712340659</v>
       </c>
       <c r="W17" t="n">
-        <v>2445.183887219624</v>
+        <v>2781.600168344273</v>
       </c>
       <c r="X17" t="n">
-        <v>2171.629557900544</v>
+        <v>2482.77611029099</v>
       </c>
       <c r="Y17" t="n">
-        <v>1856.131926132529</v>
+        <v>2167.278478522976</v>
       </c>
     </row>
     <row r="18">
@@ -5568,34 +5568,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
         <v>765.151745215813</v>
@@ -5610,10 +5610,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125856</v>
@@ -5625,7 +5625,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5634,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>632.151773123555</v>
+        <v>569.1217789872278</v>
       </c>
       <c r="C19" t="n">
-        <v>537.8572904034452</v>
+        <v>474.827296267118</v>
       </c>
       <c r="D19" t="n">
-        <v>462.3823511989065</v>
+        <v>399.3523570625794</v>
       </c>
       <c r="E19" t="n">
-        <v>389.1109578243104</v>
+        <v>326.0809636879833</v>
       </c>
       <c r="F19" t="n">
-        <v>316.862710534197</v>
+        <v>253.8327163978701</v>
       </c>
       <c r="G19" t="n">
-        <v>223.801574116713</v>
+        <v>160.7715799803861</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19609340604102</v>
+        <v>89.19609340604099</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5692,31 +5692,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1912.105791053817</v>
+        <v>1912.105791053818</v>
       </c>
       <c r="S19" t="n">
-        <v>1795.061607088441</v>
+        <v>1732.031612952113</v>
       </c>
       <c r="T19" t="n">
-        <v>1647.936691865764</v>
+        <v>1584.906697729436</v>
       </c>
       <c r="U19" t="n">
-        <v>1433.475525199204</v>
+        <v>1370.445531062877</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.432737201115</v>
+        <v>1190.402743064787</v>
       </c>
       <c r="W19" t="n">
-        <v>1038.657267371951</v>
+        <v>975.6272732356235</v>
       </c>
       <c r="X19" t="n">
-        <v>885.3094166817308</v>
+        <v>822.2794225454033</v>
       </c>
       <c r="Y19" t="n">
-        <v>739.1585377459977</v>
+        <v>676.1285436096704</v>
       </c>
     </row>
     <row r="20">
@@ -5735,13 +5735,13 @@
         <v>1277.375523535083</v>
       </c>
       <c r="E20" t="n">
-        <v>966.228971144636</v>
+        <v>966.2289711446361</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8847665628256</v>
+        <v>629.8847665628257</v>
       </c>
       <c r="G20" t="n">
-        <v>289.4540166156192</v>
+        <v>289.4540166156191</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218342</v>
@@ -5753,7 +5753,7 @@
         <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
@@ -5765,10 +5765,10 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052368</v>
@@ -5777,25 +5777,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3289.956853344062</v>
+        <v>3289.956853344063</v>
       </c>
       <c r="T20" t="n">
         <v>3158.620805936082</v>
       </c>
       <c r="U20" t="n">
-        <v>3021.827493809749</v>
+        <v>2979.732029417716</v>
       </c>
       <c r="V20" t="n">
-        <v>2765.406306673976</v>
+        <v>2723.310842281942</v>
       </c>
       <c r="W20" t="n">
         <v>2487.279351611659</v>
       </c>
       <c r="X20" t="n">
-        <v>2188.455293558376</v>
+        <v>2188.455293558377</v>
       </c>
       <c r="Y20" t="n">
-        <v>1872.957661790361</v>
+        <v>1872.957661790362</v>
       </c>
     </row>
     <row r="21">
@@ -5805,10 +5805,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D21" t="n">
         <v>618.1564155387305</v>
@@ -5817,13 +5817,13 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927788</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064633</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
@@ -5832,31 +5832,31 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T21" t="n">
         <v>2242.828302297192</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>632.151773123555</v>
+        <v>632.1517731235558</v>
       </c>
       <c r="C22" t="n">
-        <v>537.8572904034452</v>
+        <v>537.857290403446</v>
       </c>
       <c r="D22" t="n">
-        <v>462.3823511989065</v>
+        <v>462.3823511989073</v>
       </c>
       <c r="E22" t="n">
-        <v>389.1109578243104</v>
+        <v>389.1109578243113</v>
       </c>
       <c r="F22" t="n">
-        <v>316.862710534197</v>
+        <v>316.862710534198</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7715799803862</v>
+        <v>160.7715799803861</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19609340604104</v>
+        <v>89.19609340604099</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5929,10 +5929,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1912.105791053817</v>
+        <v>1912.105791053818</v>
       </c>
       <c r="S22" t="n">
         <v>1795.061607088441</v>
@@ -5941,19 +5941,19 @@
         <v>1647.936691865764</v>
       </c>
       <c r="U22" t="n">
-        <v>1433.475525199204</v>
+        <v>1433.475525199205</v>
       </c>
       <c r="V22" t="n">
         <v>1253.432737201115</v>
       </c>
       <c r="W22" t="n">
-        <v>1038.657267371951</v>
+        <v>1038.657267371952</v>
       </c>
       <c r="X22" t="n">
-        <v>885.3094166817308</v>
+        <v>885.3094166817314</v>
       </c>
       <c r="Y22" t="n">
-        <v>739.1585377459977</v>
+        <v>739.1585377459984</v>
       </c>
     </row>
     <row r="23">
@@ -5963,70 +5963,70 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.185977056951</v>
+        <v>1862.18597705695</v>
       </c>
       <c r="C23" t="n">
-        <v>1567.865160324336</v>
+        <v>1567.865160324335</v>
       </c>
       <c r="D23" t="n">
-        <v>1284.241161925383</v>
+        <v>1284.241161925382</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0946095349354</v>
+        <v>973.0946095349344</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7504049531249</v>
+        <v>636.750404953124</v>
       </c>
       <c r="G23" t="n">
-        <v>296.3196550059182</v>
+        <v>296.3196550059181</v>
       </c>
       <c r="H23" t="n">
-        <v>73.37775482248237</v>
+        <v>73.37775482248236</v>
       </c>
       <c r="I23" t="n">
-        <v>73.37775482248237</v>
+        <v>73.37775482248236</v>
       </c>
       <c r="J23" t="n">
-        <v>388.4813261528515</v>
+        <v>388.4813261528511</v>
       </c>
       <c r="K23" t="n">
-        <v>722.3006998426979</v>
+        <v>722.3006998426974</v>
       </c>
       <c r="L23" t="n">
-        <v>1173.334913091107</v>
+        <v>1173.334913091106</v>
       </c>
       <c r="M23" t="n">
-        <v>1706.866817763031</v>
+        <v>1706.86681776303</v>
       </c>
       <c r="N23" t="n">
         <v>2253.645634821813</v>
       </c>
       <c r="O23" t="n">
-        <v>2756.61810570115</v>
+        <v>2756.618105701149</v>
       </c>
       <c r="P23" t="n">
-        <v>3151.392472058328</v>
+        <v>3151.392472058327</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.870674567316</v>
+        <v>3609.870674567315</v>
       </c>
       <c r="R23" t="n">
         <v>3668.887741124118</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.238772859011</v>
+        <v>3633.23877285901</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.90272545103</v>
+        <v>3501.902725451029</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.013948932664</v>
+        <v>3323.013948932663</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.59276179689</v>
+        <v>3066.592761796889</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.465806734573</v>
+        <v>2788.465806734572</v>
       </c>
       <c r="X23" t="n">
         <v>2489.64174868129</v>
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>948.4094928714077</v>
+        <v>948.4094928714064</v>
       </c>
       <c r="C24" t="n">
-        <v>773.9564635902807</v>
+        <v>773.9564635902794</v>
       </c>
       <c r="D24" t="n">
-        <v>625.0220539290294</v>
+        <v>625.0220539290282</v>
       </c>
       <c r="E24" t="n">
-        <v>465.7845989235739</v>
+        <v>465.7845989235727</v>
       </c>
       <c r="F24" t="n">
-        <v>319.2500409504588</v>
+        <v>319.2500409504577</v>
       </c>
       <c r="G24" t="n">
-        <v>182.8869407830769</v>
+        <v>182.8869407830758</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38504642094443</v>
+        <v>92.38504642094328</v>
       </c>
       <c r="I24" t="n">
-        <v>73.37775482248237</v>
+        <v>73.37775482248236</v>
       </c>
       <c r="J24" t="n">
         <v>167.0550243130996</v>
@@ -6090,28 +6090,28 @@
         <v>2571.919180923639</v>
       </c>
       <c r="R24" t="n">
-        <v>2571.774827516155</v>
+        <v>2571.774827516154</v>
       </c>
       <c r="S24" t="n">
-        <v>2442.336941009635</v>
+        <v>2442.336941009634</v>
       </c>
       <c r="T24" t="n">
-        <v>2249.693940687491</v>
+        <v>2249.69394068749</v>
       </c>
       <c r="U24" t="n">
-        <v>2021.626093821907</v>
+        <v>2021.626093821905</v>
       </c>
       <c r="V24" t="n">
-        <v>1786.473985590164</v>
+        <v>1786.473985590163</v>
       </c>
       <c r="W24" t="n">
-        <v>1532.236628861962</v>
+        <v>1532.236628861961</v>
       </c>
       <c r="X24" t="n">
-        <v>1324.38512865643</v>
+        <v>1324.385128656428</v>
       </c>
       <c r="Y24" t="n">
-        <v>1116.624829891476</v>
+        <v>1116.624829891475</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>575.9874173775271</v>
+        <v>575.9874173775268</v>
       </c>
       <c r="C25" t="n">
-        <v>481.6929346574173</v>
+        <v>481.692934657417</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2179954528785</v>
+        <v>406.2179954528783</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9466020782825</v>
+        <v>332.9466020782823</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6983547881692</v>
+        <v>260.698354788169</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6372183706852</v>
+        <v>167.637218370685</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06173179634</v>
+        <v>96.06173179633994</v>
       </c>
       <c r="I25" t="n">
-        <v>73.37775482248237</v>
+        <v>73.37775482248236</v>
       </c>
       <c r="J25" t="n">
         <v>118.5003872694179</v>
@@ -6172,25 +6172,25 @@
         <v>1918.971429444116</v>
       </c>
       <c r="S25" t="n">
-        <v>1738.897251342413</v>
+        <v>1801.92724547874</v>
       </c>
       <c r="T25" t="n">
-        <v>1591.772336119736</v>
+        <v>1654.802330256063</v>
       </c>
       <c r="U25" t="n">
-        <v>1377.311169453176</v>
+        <v>1440.341163589503</v>
       </c>
       <c r="V25" t="n">
-        <v>1197.268381455087</v>
+        <v>1260.298375591414</v>
       </c>
       <c r="W25" t="n">
-        <v>982.4929116259232</v>
+        <v>1045.52290576225</v>
       </c>
       <c r="X25" t="n">
-        <v>829.1450609357029</v>
+        <v>892.1750550720299</v>
       </c>
       <c r="Y25" t="n">
-        <v>682.9941819999698</v>
+        <v>746.0241761362969</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C26" t="n">
         <v>1711.594658697161</v>
@@ -6233,19 +6233,19 @@
         <v>1054.879634793969</v>
       </c>
       <c r="M26" t="n">
-        <v>1588.411539465894</v>
+        <v>1872.543307058811</v>
       </c>
       <c r="N26" t="n">
-        <v>2135.190356524676</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O26" t="n">
-        <v>2761.436232647468</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P26" t="n">
-        <v>3474.791320094414</v>
+        <v>3750.042416521972</v>
       </c>
       <c r="Q26" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R26" t="n">
         <v>4057.345844834457</v>
@@ -6260,7 +6260,7 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W26" t="n">
         <v>3040.963574146293</v>
@@ -6321,10 +6321,10 @@
         <v>2111.547193875144</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q27" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R27" t="n">
         <v>2579.543989590362</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913841</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415471</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302704</v>
       </c>
       <c r="I28" t="n">
         <v>81.14691689668915</v>
@@ -6397,10 +6397,10 @@
         <v>1564.908879308444</v>
       </c>
       <c r="O28" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
         <v>2313.972430572251</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="29">
@@ -6443,13 +6443,13 @@
         <v>1711.594658697162</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467798</v>
+        <v>698.9037015467792</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398486</v>
@@ -6467,13 +6467,13 @@
         <v>603.8454215455608</v>
       </c>
       <c r="L29" t="n">
-        <v>1468.364237198915</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M29" t="n">
-        <v>2001.89614187084</v>
+        <v>2033.429937623798</v>
       </c>
       <c r="N29" t="n">
-        <v>2548.674958929621</v>
+        <v>2852.295579285459</v>
       </c>
       <c r="O29" t="n">
         <v>3355.268050164796</v>
@@ -6506,7 +6506,7 @@
         <v>2714.947448833287</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="30">
@@ -6540,19 +6540,19 @@
         <v>81.14691689668916</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O30" t="n">
         <v>2111.547193875144</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E31" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913845</v>
       </c>
       <c r="F31" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415475</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643398</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302709</v>
       </c>
       <c r="I31" t="n">
         <v>81.14691689668916</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973142</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982168</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350172</v>
@@ -6634,19 +6634,19 @@
         <v>1564.908879308444</v>
       </c>
       <c r="O31" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P31" t="n">
         <v>2189.856749167329</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.97243057225</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277851</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052751</v>
       </c>
       <c r="T31" t="n">
         <v>1953.038372570351</v>
@@ -6655,7 +6655,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W31" t="n">
         <v>1262.182746297367</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="32">
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456142</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644872</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D33" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977805</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F33" t="n">
         <v>327.0192030246656</v>
@@ -6777,25 +6777,25 @@
         <v>81.14691689668916</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873063</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676534</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803187</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q33" t="n">
         <v>2579.688342997847</v>
@@ -6856,25 +6856,25 @@
         <v>81.14691689668916</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960309</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973139</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982166</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q34" t="n">
         <v>2313.972430572251</v>
@@ -6938,22 +6938,22 @@
         <v>255.3912473912087</v>
       </c>
       <c r="K35" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q35" t="n">
         <v>3266.588755052368</v>
@@ -6968,13 +6968,13 @@
         <v>3206.680274668174</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V35" t="n">
         <v>2819.429779746127</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X35" t="n">
         <v>2290.53823536262</v>
@@ -7017,22 +7017,22 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q36" t="n">
         <v>2565.053542533341</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>698.2736995386226</v>
+        <v>500.9308303909359</v>
       </c>
       <c r="C37" t="n">
-        <v>529.3375166107157</v>
+        <v>430.6660820368724</v>
       </c>
       <c r="D37" t="n">
-        <v>477.8923117722234</v>
+        <v>379.22087719838</v>
       </c>
       <c r="E37" t="n">
-        <v>329.9792181898302</v>
+        <v>329.9792181898303</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919199</v>
+        <v>281.7607052657633</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404823</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H37" t="n">
         <v>66.51211643218342</v>
@@ -7117,28 +7117,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S37" t="n">
-        <v>1834.280098489162</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T37" t="n">
-        <v>1711.184917632532</v>
+        <v>1471.20877751071</v>
       </c>
       <c r="U37" t="n">
-        <v>1520.753485332018</v>
+        <v>1280.777345210197</v>
       </c>
       <c r="V37" t="n">
-        <v>1364.740431699975</v>
+        <v>1124.764291578153</v>
       </c>
       <c r="W37" t="n">
-        <v>1173.994696236858</v>
+        <v>934.0185561150363</v>
       </c>
       <c r="X37" t="n">
-        <v>1044.676579912684</v>
+        <v>804.7004397908623</v>
       </c>
       <c r="Y37" t="n">
-        <v>879.9221643688624</v>
+        <v>682.5792952211756</v>
       </c>
     </row>
     <row r="38">
@@ -7151,58 +7151,58 @@
         <v>1711.141932470374</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464979</v>
+        <v>894.1397680464972</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307337</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
         <v>255.3912473912083</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329463</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U38" t="n">
         <v>3051.821232515855</v>
@@ -7217,7 +7217,7 @@
         <v>2290.538235362621</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G39" t="n">
         <v>176.021302392778</v>
@@ -7248,22 +7248,22 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
         <v>2096.912393410638</v>
@@ -7284,7 +7284,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7293,10 +7293,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>839.5784050866012</v>
+        <v>453.7336441225988</v>
       </c>
       <c r="C40" t="n">
-        <v>769.3136567325377</v>
+        <v>383.4688957685353</v>
       </c>
       <c r="D40" t="n">
-        <v>673.8894235277213</v>
+        <v>332.023690930043</v>
       </c>
       <c r="E40" t="n">
-        <v>624.6477645191717</v>
+        <v>282.7820319214933</v>
       </c>
       <c r="F40" t="n">
-        <v>477.7578170212613</v>
+        <v>234.5635189974263</v>
       </c>
       <c r="G40" t="n">
-        <v>310.0549803959803</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H40" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L40" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N40" t="n">
         <v>1317.747152581905</v>
@@ -7351,31 +7351,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S40" t="n">
-        <v>1834.280098489162</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T40" t="n">
-        <v>1711.184917632532</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U40" t="n">
-        <v>1520.753485332018</v>
+        <v>1233.58015894186</v>
       </c>
       <c r="V40" t="n">
-        <v>1364.740431699975</v>
+        <v>978.8956707359731</v>
       </c>
       <c r="W40" t="n">
-        <v>1173.994696236858</v>
+        <v>788.1499352728558</v>
       </c>
       <c r="X40" t="n">
-        <v>1044.676579912684</v>
+        <v>658.8318189486819</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.5554353429974</v>
+        <v>536.7106743789951</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470372</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C41" t="n">
-        <v>1440.850850103804</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D41" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464966</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F41" t="n">
-        <v>581.825297830733</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G41" t="n">
         <v>265.4242822495729</v>
@@ -7409,10 +7409,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
@@ -7424,10 +7424,10 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
         <v>3266.588755052368</v>
@@ -7442,19 +7442,19 @@
         <v>3206.680274668174</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746126</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.538235362619</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="42">
@@ -7488,19 +7488,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
         <v>2096.912393410638</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>642.235535938914</v>
+        <v>500.9308303909359</v>
       </c>
       <c r="C43" t="n">
-        <v>571.9707875848505</v>
+        <v>430.6660820368724</v>
       </c>
       <c r="D43" t="n">
-        <v>520.5255827463582</v>
+        <v>379.22087719838</v>
       </c>
       <c r="E43" t="n">
-        <v>471.2839237378084</v>
+        <v>329.9792181898302</v>
       </c>
       <c r="F43" t="n">
-        <v>380.4321398396066</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G43" t="n">
-        <v>212.7293032143256</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H43" t="n">
         <v>66.51211643218342</v>
@@ -7591,28 +7591,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S43" t="n">
-        <v>1834.280098489162</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T43" t="n">
-        <v>1711.184917632532</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U43" t="n">
-        <v>1520.753485332018</v>
+        <v>1233.58015894186</v>
       </c>
       <c r="V43" t="n">
-        <v>1364.740431699975</v>
+        <v>1026.09285700431</v>
       </c>
       <c r="W43" t="n">
-        <v>1173.994696236858</v>
+        <v>835.3471215411929</v>
       </c>
       <c r="X43" t="n">
-        <v>946.0051453388405</v>
+        <v>706.0290052170189</v>
       </c>
       <c r="Y43" t="n">
-        <v>725.2125661953104</v>
+        <v>583.9078606473322</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C44" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464972</v>
+        <v>894.1397680464979</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G44" t="n">
         <v>265.4242822495727</v>
@@ -7646,13 +7646,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001388</v>
@@ -7688,7 +7688,7 @@
         <v>2565.332559049857</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y44" t="n">
         <v>1999.070337960652</v>
@@ -7725,28 +7725,28 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R45" t="n">
         <v>2564.909189125856</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>543.5641013650709</v>
+        <v>740.9069705127581</v>
       </c>
       <c r="C46" t="n">
-        <v>374.627918437164</v>
+        <v>670.6422221586947</v>
       </c>
       <c r="D46" t="n">
-        <v>323.1827135986717</v>
+        <v>520.525582746359</v>
       </c>
       <c r="E46" t="n">
-        <v>231.3077836159866</v>
+        <v>372.6124891639658</v>
       </c>
       <c r="F46" t="n">
-        <v>183.0892706919198</v>
+        <v>225.7225416660555</v>
       </c>
       <c r="G46" t="n">
-        <v>114.0578686404822</v>
+        <v>156.691139614618</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218342</v>
+        <v>109.1453874063192</v>
       </c>
       <c r="I46" t="n">
         <v>66.51211643218342</v>
@@ -7837,19 +7837,19 @@
         <v>1711.184917632532</v>
       </c>
       <c r="U46" t="n">
-        <v>1422.082050758175</v>
+        <v>1520.753485332019</v>
       </c>
       <c r="V46" t="n">
-        <v>1266.068997126132</v>
+        <v>1364.740431699975</v>
       </c>
       <c r="W46" t="n">
-        <v>1075.323261663015</v>
+        <v>1173.994696236858</v>
       </c>
       <c r="X46" t="n">
-        <v>847.3337107649972</v>
+        <v>1044.676579912684</v>
       </c>
       <c r="Y46" t="n">
-        <v>626.5411316214671</v>
+        <v>922.5554353429978</v>
       </c>
     </row>
   </sheetData>
@@ -8459,19 +8459,19 @@
         <v>191.4948909389609</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333073</v>
+        <v>181.0856325333072</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830247</v>
+        <v>179.3553748830246</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554383996</v>
+        <v>182.8301554383995</v>
       </c>
       <c r="P8" t="n">
-        <v>190.890803558659</v>
+        <v>190.8908035586589</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.0103836266128</v>
+        <v>192.0103836266127</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8535,16 +8535,16 @@
         <v>113.6031223372536</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9629718672278</v>
+        <v>105.9629718672277</v>
       </c>
       <c r="M9" t="n">
         <v>104.1013981253597</v>
       </c>
       <c r="N9" t="n">
-        <v>92.302465586777</v>
+        <v>92.30246558677696</v>
       </c>
       <c r="O9" t="n">
-        <v>106.882960835974</v>
+        <v>106.8829608359739</v>
       </c>
       <c r="P9" t="n">
         <v>105.3113487798327</v>
@@ -8623,7 +8623,7 @@
         <v>108.428412314078</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530927</v>
+        <v>120.6694600530926</v>
       </c>
       <c r="P10" t="n">
         <v>122.5080856662706</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>127.4994347185291</v>
+        <v>127.4994347185286</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.13331566353736e-12</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9881,22 +9881,22 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>287.0017854473914</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>124.5185911550059</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10115,16 +10115,16 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>274.8351763665443</v>
       </c>
       <c r="O29" t="n">
-        <v>306.6874953089266</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>355.8136950763541</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23267,13 +23267,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>379.9558991545849</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>92.59339637606571</v>
       </c>
       <c r="H11" t="n">
-        <v>162.7025579652527</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26761520104935</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>176.9978235524937</v>
+        <v>176.9978235524936</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0750253717755</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3177920689271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>118.5009014358047</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>55.67527584839678</v>
+        <v>65.33294625642367</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>69.43227382271158</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>62.01200608292082</v>
       </c>
       <c r="S13" t="n">
         <v>162.8488787443154</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>259.6028517494645</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>355.8136950763542</v>
       </c>
       <c r="C14" t="n">
-        <v>338.352745183881</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>48.32036126345754</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>379.9558991545849</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.6876178001941</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65678318579949</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>22.54170921402479</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0750253717755</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>359.3177920689272</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.9118335948108</v>
+        <v>152.9118335948109</v>
       </c>
       <c r="C16" t="n">
-        <v>19.44712916165511</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>121.6953264310859</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F16" t="n">
-        <v>118.5009014358048</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8348683271943</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271164</v>
+        <v>69.43227382271166</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>14.57375643412718</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>308.0350868665427</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23786,16 +23786,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>177.0998887531829</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>155.9522295602191</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>25.01703144686064</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>291.3776085652885</v>
+        <v>291.3776085652884</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -24023,13 +24023,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>41.67450974811444</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>41.67450974811294</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -26314,31 +26314,31 @@
         <v>266264.8100830375</v>
       </c>
       <c r="C2" t="n">
-        <v>266264.8100830375</v>
+        <v>266264.8100830374</v>
       </c>
       <c r="D2" t="n">
-        <v>266272.0676869326</v>
+        <v>266272.0676869325</v>
       </c>
       <c r="E2" t="n">
-        <v>237100.5002941171</v>
+        <v>237100.5002941172</v>
       </c>
       <c r="F2" t="n">
         <v>237100.5002941171</v>
       </c>
       <c r="G2" t="n">
-        <v>258222.5169051245</v>
+        <v>258222.5169051246</v>
       </c>
       <c r="H2" t="n">
-        <v>258222.5169051245</v>
+        <v>258222.5169051246</v>
       </c>
       <c r="I2" t="n">
-        <v>266838.5752058922</v>
+        <v>266838.5752058923</v>
       </c>
       <c r="J2" t="n">
-        <v>266838.5752058922</v>
+        <v>266838.5752058921</v>
       </c>
       <c r="K2" t="n">
-        <v>266838.575205892</v>
+        <v>266838.5752058921</v>
       </c>
       <c r="L2" t="n">
         <v>266838.5752058921</v>
@@ -26347,13 +26347,13 @@
         <v>266838.575205892</v>
       </c>
       <c r="N2" t="n">
-        <v>266838.5752058923</v>
+        <v>266838.5752058922</v>
       </c>
       <c r="O2" t="n">
         <v>266838.575205892</v>
       </c>
       <c r="P2" t="n">
-        <v>266838.5752058923</v>
+        <v>266838.5752058921</v>
       </c>
     </row>
     <row r="3">
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367552213</v>
+        <v>59764.55367552221</v>
       </c>
       <c r="E3" t="n">
         <v>1089238.972163633</v>
@@ -26378,34 +26378,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487406</v>
+        <v>37580.10929487416</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22821.4678298336</v>
+        <v>22821.46782983337</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179698</v>
+        <v>25409.43302179701</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487406</v>
+        <v>37580.10929487416</v>
       </c>
       <c r="M3" t="n">
         <v>202168.0999927242</v>
       </c>
       <c r="N3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5.684341886080801e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26424,10 +26424,10 @@
         <v>426120.6833475041</v>
       </c>
       <c r="E4" t="n">
-        <v>39414.21797863749</v>
+        <v>39414.21797863753</v>
       </c>
       <c r="F4" t="n">
-        <v>39414.2179786375</v>
+        <v>39414.21797863743</v>
       </c>
       <c r="G4" t="n">
         <v>76442.37834007973</v>
@@ -26436,13 +26436,13 @@
         <v>76442.37834007974</v>
       </c>
       <c r="I4" t="n">
-        <v>89331.3356060285</v>
+        <v>89331.33560602852</v>
       </c>
       <c r="J4" t="n">
-        <v>86909.55729936337</v>
+        <v>86909.55729936341</v>
       </c>
       <c r="K4" t="n">
-        <v>86909.55729936346</v>
+        <v>86909.55729936343</v>
       </c>
       <c r="L4" t="n">
         <v>86909.55729936343</v>
@@ -26451,13 +26451,13 @@
         <v>91573.95495316941</v>
       </c>
       <c r="N4" t="n">
-        <v>91573.95495316945</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="O4" t="n">
-        <v>91573.95495316941</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="P4" t="n">
-        <v>91573.95495316945</v>
+        <v>91573.95495316948</v>
       </c>
     </row>
     <row r="5">
@@ -26479,16 +26479,16 @@
         <v>76569.49036482643</v>
       </c>
       <c r="F5" t="n">
-        <v>76569.49036482643</v>
+        <v>76569.49036482642</v>
       </c>
       <c r="G5" t="n">
-        <v>80518.64312521488</v>
+        <v>80518.64312521491</v>
       </c>
       <c r="H5" t="n">
-        <v>80518.64312521489</v>
+        <v>80518.64312521491</v>
       </c>
       <c r="I5" t="n">
-        <v>85736.5283018421</v>
+        <v>85736.52830184209</v>
       </c>
       <c r="J5" t="n">
         <v>89377.9416748061</v>
@@ -26503,7 +26503,7 @@
         <v>82518.59730624984</v>
       </c>
       <c r="N5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="O5" t="n">
         <v>82518.59730624984</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-214387.4101893554</v>
+        <v>-214391.8237672235</v>
       </c>
       <c r="C6" t="n">
-        <v>-214387.4101893554</v>
+        <v>-214391.8237672236</v>
       </c>
       <c r="D6" t="n">
-        <v>-254762.0747679599</v>
+        <v>-254766.432518106</v>
       </c>
       <c r="E6" t="n">
-        <v>-968122.1802129793</v>
+        <v>-968350.9346353775</v>
       </c>
       <c r="F6" t="n">
-        <v>121116.7919506531</v>
+        <v>120888.0375282551</v>
       </c>
       <c r="G6" t="n">
-        <v>63681.38614495585</v>
+        <v>63615.10877341145</v>
       </c>
       <c r="H6" t="n">
-        <v>101261.4954398299</v>
+        <v>101195.2180682856</v>
       </c>
       <c r="I6" t="n">
-        <v>68949.24346818801</v>
+        <v>68949.24346818829</v>
       </c>
       <c r="J6" t="n">
-        <v>65141.64320992575</v>
+        <v>65141.64320992558</v>
       </c>
       <c r="K6" t="n">
-        <v>90551.07623172246</v>
+        <v>90551.07623172272</v>
       </c>
       <c r="L6" t="n">
-        <v>52970.96693684853</v>
+        <v>52970.96693684845</v>
       </c>
       <c r="M6" t="n">
         <v>-109422.0770462514</v>
       </c>
       <c r="N6" t="n">
-        <v>92746.02294647291</v>
+        <v>92746.02294647295</v>
       </c>
       <c r="O6" t="n">
-        <v>92746.02294647286</v>
+        <v>92746.02294647277</v>
       </c>
       <c r="P6" t="n">
-        <v>92746.02294647291</v>
+        <v>92746.02294647282</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="J2" t="n">
         <v>46.97513661859259</v>
@@ -26719,13 +26719,13 @@
         <v>97.68472022810494</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790565</v>
+        <v>69.78465283790574</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26802,13 +26802,13 @@
         <v>831.4014554022925</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="I4" t="n">
-        <v>917.2219352810296</v>
+        <v>917.2219352810295</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208614</v>
@@ -26823,7 +26823,7 @@
         <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022926</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,19 +26935,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="M2" t="n">
         <v>50.70958360951235</v>
       </c>
       <c r="N2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790565</v>
+        <v>69.78465283790574</v>
       </c>
       <c r="E3" t="n">
         <v>1019.992047755392</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.82047987873693</v>
+        <v>85.82047987873671</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11452592758474</v>
+        <v>97.11452592758485</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780177</v>
+        <v>132.2465643780176</v>
       </c>
       <c r="S8" t="n">
         <v>202.6272343036573</v>
@@ -28035,7 +28035,7 @@
         <v>84.46220888519093</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050990491</v>
+        <v>7.649035050990474</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317063</v>
+        <v>75.62456067317062</v>
       </c>
       <c r="R10" t="n">
         <v>171.6351144437878</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712652</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712652</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="H19" t="n">
-        <v>11.49558901075551</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89528320571907</v>
+        <v>11.4955890107544</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="G22" t="n">
-        <v>11.49558901075551</v>
+        <v>11.49558901075443</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89528320571907</v>
+        <v>11.49558901075488</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="S25" t="n">
-        <v>11.49558901075554</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571911</v>
       </c>
     </row>
     <row r="26">
@@ -29469,7 +29469,7 @@
         <v>46.97513661859259</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859216</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P28" t="n">
         <v>46.97513661859259</v>
@@ -29928,7 +29928,7 @@
         <v>46.97513661859259</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185921</v>
       </c>
       <c r="K34" t="n">
         <v>46.97513661859259</v>
@@ -29949,7 +29949,7 @@
         <v>46.97513661859259</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859213</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R34" t="n">
         <v>46.97513661859259</v>
@@ -30144,22 +30144,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="D37" t="n">
         <v>97.68472022810494</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="G37" t="n">
         <v>97.68472022810494</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983812</v>
@@ -30189,13 +30189,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810494</v>
+        <v>46.72521440565393</v>
       </c>
       <c r="U37" t="n">
         <v>97.68472022810494</v>
@@ -30210,7 +30210,7 @@
         <v>97.68472022810494</v>
       </c>
       <c r="Y37" t="n">
-        <v>55.47778196371158</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D40" t="n">
-        <v>54.14548214544418</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>46.72521440565357</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="42">
@@ -30615,25 +30615,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="F43" t="n">
-        <v>55.47778196371146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983812</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810495</v>
+        <v>46.72521440565419</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>55.47778196371092</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>54.14548214544367</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30903,25 +30903,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>97.68472022810505</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.280541317941329</v>
+        <v>0.2805413179413294</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366637</v>
+        <v>2.87309377236664</v>
       </c>
       <c r="I8" t="n">
-        <v>10.8155691599331</v>
+        <v>10.81556915993311</v>
       </c>
       <c r="J8" t="n">
-        <v>23.8105936836229</v>
+        <v>23.81059368362293</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767207937</v>
+        <v>35.68590767207941</v>
       </c>
       <c r="L8" t="n">
-        <v>44.27152403102632</v>
+        <v>44.27152403102637</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396543</v>
+        <v>49.26060069396549</v>
       </c>
       <c r="N8" t="n">
-        <v>50.05768871356624</v>
+        <v>50.0576887135663</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328714</v>
+        <v>47.2680559832872</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219661058</v>
+        <v>40.34219219661063</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.29530624783672</v>
+        <v>30.29530624783676</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313203</v>
+        <v>17.62255356313205</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282588042</v>
+        <v>6.39283528258805</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288169</v>
+        <v>1.22806961928817</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02244330543530632</v>
+        <v>0.02244330543530635</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796461</v>
+        <v>0.1501028381796463</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840267</v>
+        <v>1.449677410840269</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384693957</v>
+        <v>5.168014384693963</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906911</v>
+        <v>14.18142647906913</v>
       </c>
       <c r="K9" t="n">
-        <v>24.2383166371054</v>
+        <v>24.23831663710543</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264641</v>
+        <v>32.59140791264645</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579665857</v>
+        <v>38.03263579665862</v>
       </c>
       <c r="N9" t="n">
-        <v>39.0392464965563</v>
+        <v>39.03924649655634</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360847046</v>
+        <v>35.7132836084705</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449752</v>
+        <v>28.66305863449755</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447553</v>
+        <v>19.16049562447555</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882767857</v>
+        <v>9.319542882767868</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608776</v>
+        <v>2.78809438460878</v>
       </c>
       <c r="T9" t="n">
-        <v>0.605019773189012</v>
+        <v>0.6050197731890128</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722345143</v>
+        <v>0.009875186722345155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1258411772486823</v>
+        <v>0.1258411772486825</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466811013</v>
+        <v>1.118842466811014</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078556</v>
+        <v>3.784387403078561</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231481839</v>
+        <v>8.896971231481849</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489236</v>
+        <v>14.62045677489238</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477228</v>
+        <v>18.7091510247723</v>
       </c>
       <c r="M10" t="n">
-        <v>19.72617653908208</v>
+        <v>19.7261765390821</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115519</v>
+        <v>19.25713215115521</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839875012</v>
+        <v>17.78707839875014</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287699</v>
+        <v>15.21991838287701</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852375</v>
+        <v>10.53748257852377</v>
       </c>
       <c r="R10" t="n">
-        <v>5.65827693338166</v>
+        <v>5.658276933381667</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233854</v>
+        <v>2.193068516233856</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5376850300625515</v>
+        <v>0.5376850300625522</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006864064213564498</v>
+        <v>0.006864064213564506</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33041,7 +33041,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987486</v>
@@ -33260,7 +33260,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
@@ -33278,7 +33278,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987486</v>
@@ -33518,7 +33518,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33737,7 +33737,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138795</v>
@@ -33755,7 +33755,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34226,7 +34226,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987486</v>
@@ -34445,7 +34445,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019271</v>
+        <v>72.49856320019273</v>
       </c>
       <c r="K13" t="n">
         <v>232.9678061314461</v>
       </c>
       <c r="L13" t="n">
-        <v>346.6775187573246</v>
+        <v>346.6775187573247</v>
       </c>
       <c r="M13" t="n">
         <v>374.5535259806103</v>
@@ -35580,13 +35580,13 @@
         <v>371.7770927546666</v>
       </c>
       <c r="O13" t="n">
-        <v>329.2732768097662</v>
+        <v>329.2732768097663</v>
       </c>
       <c r="P13" t="n">
         <v>261.8772177322369</v>
       </c>
       <c r="Q13" t="n">
-        <v>105.3143851250201</v>
+        <v>105.3143851250202</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019268</v>
+        <v>72.49856320019265</v>
       </c>
       <c r="K16" t="n">
         <v>232.967806131446</v>
@@ -35811,16 +35811,16 @@
         <v>346.6775187573245</v>
       </c>
       <c r="M16" t="n">
-        <v>374.5535259806103</v>
+        <v>374.5535259806102</v>
       </c>
       <c r="N16" t="n">
-        <v>371.7770927546666</v>
+        <v>371.7770927546665</v>
       </c>
       <c r="O16" t="n">
         <v>329.2732768097662</v>
       </c>
       <c r="P16" t="n">
-        <v>261.8772177322369</v>
+        <v>261.8772177322368</v>
       </c>
       <c r="Q16" t="n">
         <v>105.3143851250201</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>318.2864356872416</v>
+        <v>318.2864356872411</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554004</v>
@@ -36601,22 +36601,22 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>825.9229012776179</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O26" t="n">
-        <v>632.5715920432249</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36689,7 +36689,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127271</v>
@@ -36765,7 +36765,7 @@
         <v>391.8320827861326</v>
       </c>
       <c r="O28" t="n">
-        <v>349.3282668412319</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
         <v>281.932207763703</v>
@@ -36835,16 +36835,16 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>827.1370117794555</v>
       </c>
       <c r="O29" t="n">
-        <v>814.7404961971456</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193716</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597774</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -36926,7 +36926,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127271</v>
@@ -37166,7 +37166,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316583</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
@@ -37245,7 +37245,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564858</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340053</v>
@@ -37403,7 +37403,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597743</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37713,13 +37713,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37795,7 +37795,7 @@
         <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
         <v>250.7943048037194</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597743</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -37874,7 +37874,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127271</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597743</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
